--- a/Sales_Analytics - Dataset.xlsx
+++ b/Sales_Analytics - Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aarti\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E325125F-3D0C-4E28-9599-0173B2E42318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B91BD3E-D31B-4C0F-85B0-B4A9B20445F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -3383,7 +3383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3420,276 +3420,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
@@ -4207,13 +3948,13 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1" xr9:uid="{B9F47F6A-459C-4A96-AD20-14472C1045C1}">
-      <tableStyleElement type="wholeTable" dxfId="108"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
     </tableStyle>
     <tableStyle name="Slicer Style 2" pivot="0" table="0" count="1" xr9:uid="{F68A4BE9-42C4-4A1E-B113-AEB1A1ED6F83}">
-      <tableStyleElement type="wholeTable" dxfId="107"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
     </tableStyle>
     <tableStyle name="Slicer Style trial" pivot="0" table="0" count="1" xr9:uid="{6A1CF09C-F9B2-4BCE-A555-AD84314D681B}">
-      <tableStyleElement type="wholeTable" dxfId="106"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -17833,8 +17574,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>36301</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Branch">
@@ -17857,7 +17598,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17911,8 +17652,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>149641</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Product line">
@@ -17935,7 +17676,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -34950,7 +34691,7 @@
     <dataField name="Sum of Quantity" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="89">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -36158,7 +35899,7 @@
     <dataField name="Number of Customers" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="88">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="12">
@@ -36178,7 +35919,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="12">
@@ -36198,7 +35939,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -36287,21 +36028,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB27FC91-6D39-4A82-9520-67839853BCDC}" name="Table1" displayName="Table1" ref="A1:L1001" totalsRowShown="0" headerRowDxfId="105" headerRowBorderDxfId="104" tableBorderDxfId="103" totalsRowBorderDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB27FC91-6D39-4A82-9520-67839853BCDC}" name="Table1" displayName="Table1" ref="A1:L1001" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A1:L1001" xr:uid="{CB27FC91-6D39-4A82-9520-67839853BCDC}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{48B49C9B-32E6-43F0-9318-738FB0915E8E}" name="Invoice ID" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{355F8089-AB28-494E-ABBC-A45929F64E07}" name="Branch" dataDxfId="100"/>
-    <tableColumn id="3" xr3:uid="{890497C4-F581-4622-81A4-D1B207D93FFF}" name="City" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{21EF1C3F-43FA-4F08-8370-C822165FBEDE}" name="Customer type" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{B78B4370-B7DC-4F0A-BCC6-0AD82DEAB3B0}" name="Gender" dataDxfId="97"/>
-    <tableColumn id="6" xr3:uid="{212354C0-3E1D-4AA5-ABA1-E617FAE1C3FD}" name="Product line" dataDxfId="96"/>
-    <tableColumn id="7" xr3:uid="{3550D124-A3F3-4275-ACC9-A14ABB28C62D}" name="Unit price" dataDxfId="95"/>
-    <tableColumn id="8" xr3:uid="{983324E8-6785-4725-9C55-5C59F45B907A}" name="Quantity" dataDxfId="94"/>
-    <tableColumn id="9" xr3:uid="{3FB12142-781A-40EA-8435-5286779362FE}" name="Total" dataDxfId="93"/>
-    <tableColumn id="10" xr3:uid="{D504D37D-AB17-4B02-9183-D34F24638A1F}" name="Date" dataDxfId="92"/>
-    <tableColumn id="11" xr3:uid="{C72F1541-5F7C-4D40-8878-CEE288B27819}" name="Payment" dataDxfId="91"/>
-    <tableColumn id="12" xr3:uid="{9816C105-B6D8-4E18-9579-6440479C954F}" name="Rating" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{48B49C9B-32E6-43F0-9318-738FB0915E8E}" name="Invoice ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{355F8089-AB28-494E-ABBC-A45929F64E07}" name="Branch" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{890497C4-F581-4622-81A4-D1B207D93FFF}" name="City" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{21EF1C3F-43FA-4F08-8370-C822165FBEDE}" name="Customer type" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{B78B4370-B7DC-4F0A-BCC6-0AD82DEAB3B0}" name="Gender" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{212354C0-3E1D-4AA5-ABA1-E617FAE1C3FD}" name="Product line" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{3550D124-A3F3-4275-ACC9-A14ABB28C62D}" name="Unit price" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{983324E8-6785-4725-9C55-5C59F45B907A}" name="Quantity" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{3FB12142-781A-40EA-8435-5286779362FE}" name="Total" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{D504D37D-AB17-4B02-9183-D34F24638A1F}" name="Date" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{C72F1541-5F7C-4D40-8878-CEE288B27819}" name="Payment" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{9816C105-B6D8-4E18-9579-6440479C954F}" name="Rating" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -74596,7 +74337,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2">
         <v>322966.74900000007</v>
       </c>
       <c r="K2" s="14" t="s">
@@ -74632,7 +74373,7 @@
       <c r="A5" s="15" t="s">
         <v>1035</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5">
         <v>97219.373999999967</v>
       </c>
       <c r="K5" s="15" t="s">
@@ -74646,7 +74387,7 @@
       <c r="A6" s="15" t="s">
         <v>1036</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6">
         <v>109455.50700000004</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -74660,7 +74401,7 @@
       <c r="A7" s="15" t="s">
         <v>1034</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7">
         <v>116291.86800000005</v>
       </c>
       <c r="K7" s="15" t="s">
@@ -74674,13 +74415,13 @@
       <c r="A8" s="15" t="s">
         <v>1033</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8">
         <v>322966.74900000007</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>1033</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8">
         <v>4656</v>
       </c>
     </row>
@@ -74696,7 +74437,7 @@
       <c r="A15" s="15" t="s">
         <v>1034</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15">
         <v>116291.86800000005</v>
       </c>
     </row>
@@ -74704,7 +74445,7 @@
       <c r="A16" s="15" t="s">
         <v>1035</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16">
         <v>97219.373999999967</v>
       </c>
     </row>
@@ -74712,7 +74453,7 @@
       <c r="A17" s="15" t="s">
         <v>1036</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17">
         <v>109455.50700000004</v>
       </c>
     </row>
@@ -74720,7 +74461,7 @@
       <c r="A18" s="15" t="s">
         <v>1033</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18">
         <v>322966.74900000007</v>
       </c>
     </row>
@@ -74756,7 +74497,7 @@
       <c r="A4" s="15" t="s">
         <v>1039</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <v>229</v>
       </c>
     </row>
@@ -74764,7 +74505,7 @@
       <c r="A5" s="15" t="s">
         <v>1040</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <v>205</v>
       </c>
     </row>
@@ -74772,7 +74513,7 @@
       <c r="A6" s="15" t="s">
         <v>1041</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>145</v>
       </c>
     </row>
@@ -74780,7 +74521,7 @@
       <c r="A7" s="15" t="s">
         <v>1042</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>115</v>
       </c>
     </row>
@@ -74788,7 +74529,7 @@
       <c r="A8" s="15" t="s">
         <v>1043</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>86</v>
       </c>
     </row>
@@ -74796,7 +74537,7 @@
       <c r="A9" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>67</v>
       </c>
     </row>
@@ -74804,7 +74545,7 @@
       <c r="A10" s="15" t="s">
         <v>1045</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <v>51</v>
       </c>
     </row>
@@ -74812,7 +74553,7 @@
       <c r="A11" s="15" t="s">
         <v>1046</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <v>47</v>
       </c>
     </row>
@@ -74820,7 +74561,7 @@
       <c r="A12" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="20">
         <v>29</v>
       </c>
     </row>
@@ -74828,7 +74569,7 @@
       <c r="A13" s="15" t="s">
         <v>1048</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="20">
         <v>19</v>
       </c>
     </row>
@@ -74836,7 +74577,7 @@
       <c r="A14" s="15" t="s">
         <v>1049</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="20">
         <v>6</v>
       </c>
     </row>
@@ -74844,7 +74585,7 @@
       <c r="A15" s="15" t="s">
         <v>1050</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="20">
         <v>1</v>
       </c>
     </row>
@@ -74852,7 +74593,7 @@
       <c r="A16" s="15" t="s">
         <v>1033</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16">
         <v>1000</v>
       </c>
     </row>
@@ -74868,7 +74609,7 @@
       <c r="A20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20">
         <v>340</v>
       </c>
     </row>
@@ -74876,7 +74617,7 @@
       <c r="A21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21">
         <v>332</v>
       </c>
     </row>
@@ -74884,7 +74625,7 @@
       <c r="A22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22">
         <v>328</v>
       </c>
     </row>
@@ -74892,7 +74633,7 @@
       <c r="A23" s="15" t="s">
         <v>1033</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23">
         <v>1000</v>
       </c>
     </row>
@@ -74920,36 +74661,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1053</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>322966.74900000007</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="22" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q22" s="19"/>
